--- a/data/SHFE_Shit_target.xlsx
+++ b/data/SHFE_Shit_target.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R83"/>
+  <dimension ref="A1:R112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,838 +528,838 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">sc2411C580                    </t>
+          <t xml:space="preserve">sc2411P510                    </t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.35</v>
+        <v>1.7</v>
       </c>
       <c r="C2" t="n">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.85</v>
+        <v>0.35</v>
       </c>
       <c r="E2" t="n">
-        <v>1.85</v>
+        <v>0.55</v>
       </c>
       <c r="F2" t="n">
-        <v>2.95</v>
+        <v>10.05</v>
       </c>
       <c r="G2" t="n">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.1</v>
+        <v>-9.5</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5</v>
+        <v>-8.6</v>
       </c>
       <c r="J2" t="n">
-        <v>598</v>
+        <v>951</v>
       </c>
       <c r="K2" t="n">
-        <v>1443</v>
+        <v>1010</v>
       </c>
       <c r="L2" t="n">
-        <v>68</v>
+        <v>-219</v>
       </c>
       <c r="M2" t="n">
-        <v>131.365</v>
+        <v>61.69</v>
       </c>
       <c r="N2" t="n">
-        <v>0.104812</v>
+        <v>-0.065024</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>9.864864864864865</v>
+        <v>20.54545454545455</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.033956216216216</v>
+        <v>-1.335947636363636</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01406691506849314</v>
+        <v>-0.0195163185840708</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">sc2411C590                    </t>
+          <t xml:space="preserve">sc2411P520                    </t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="C3" t="n">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="D3" t="n">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="F3" t="n">
-        <v>2.1</v>
+        <v>14.1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.8</v>
+        <v>-13.4</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4</v>
+        <v>-11.7</v>
       </c>
       <c r="J3" t="n">
-        <v>337</v>
+        <v>825</v>
       </c>
       <c r="K3" t="n">
-        <v>722</v>
+        <v>775</v>
       </c>
       <c r="L3" t="n">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="M3" t="n">
-        <v>51.62</v>
+        <v>72.52500000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>0.077276</v>
+        <v>-0.097997</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>14.03846153846154</v>
+        <v>16.14285714285715</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.084836153846154</v>
+        <v>-1.581951571428572</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01154771506849314</v>
+        <v>-0.04212070796460178</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">sc2411C600                    </t>
+          <t xml:space="preserve">sc2411P530                    </t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="C4" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F4" t="n">
-        <v>1.45</v>
+        <v>19.05</v>
       </c>
       <c r="G4" t="n">
-        <v>1.15</v>
+        <v>3.8</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.45</v>
+        <v>-17.85</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3</v>
+        <v>-15.25</v>
       </c>
       <c r="J4" t="n">
-        <v>908</v>
+        <v>664</v>
       </c>
       <c r="K4" t="n">
-        <v>2513</v>
+        <v>556</v>
       </c>
       <c r="L4" t="n">
-        <v>288</v>
+        <v>-60</v>
       </c>
       <c r="M4" t="n">
-        <v>107.405</v>
+        <v>90.16500000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>0.055815</v>
+        <v>-0.141236</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.25</v>
+        <v>9.416666666666668</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01862375</v>
+        <v>-1.329972333333334</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00407883561643835</v>
+        <v>-0.05003982300884957</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">sc2411C610                    </t>
+          <t xml:space="preserve">sc2411P540                    </t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9</v>
+        <v>4.85</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9</v>
+        <v>4.85</v>
       </c>
       <c r="D5" t="n">
-        <v>0.65</v>
+        <v>1.2</v>
       </c>
       <c r="E5" t="n">
-        <v>0.65</v>
+        <v>1.8</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>24.85</v>
       </c>
       <c r="G5" t="n">
-        <v>0.75</v>
+        <v>5.7</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.35</v>
+        <v>-23.05</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.25</v>
+        <v>-19.15</v>
       </c>
       <c r="J5" t="n">
-        <v>195</v>
+        <v>559</v>
       </c>
       <c r="K5" t="n">
-        <v>786</v>
+        <v>442</v>
       </c>
       <c r="L5" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="M5" t="n">
-        <v>14.6</v>
+        <v>120.895</v>
       </c>
       <c r="N5" t="n">
-        <v>0.039497</v>
+        <v>-0.194449</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>28.07692307692308</v>
+        <v>6.277777777777778</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.108954230769231</v>
+        <v>-1.220707611111111</v>
       </c>
       <c r="R5" t="n">
-        <v>0.005287304109589035</v>
+        <v>-0.06613114159292036</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">sc2411C620                    </t>
+          <t xml:space="preserve">sc2412P455                    </t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.75</v>
+        <v>1.55</v>
       </c>
       <c r="C6" t="n">
-        <v>0.75</v>
+        <v>1.9</v>
       </c>
       <c r="D6" t="n">
-        <v>0.45</v>
+        <v>1.55</v>
       </c>
       <c r="E6" t="n">
-        <v>0.45</v>
+        <v>1.75</v>
       </c>
       <c r="F6" t="n">
-        <v>0.65</v>
+        <v>6.45</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.2</v>
+        <v>-4.7</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.15</v>
+        <v>-4.15</v>
       </c>
       <c r="J6" t="n">
-        <v>241</v>
+        <v>13</v>
       </c>
       <c r="K6" t="n">
-        <v>757</v>
+        <v>60</v>
       </c>
       <c r="L6" t="n">
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="M6" t="n">
-        <v>14.305</v>
+        <v>2.325</v>
       </c>
       <c r="N6" t="n">
-        <v>0.027389</v>
+        <v>-0.062059</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>40.55555555555556</v>
+        <v>17.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.110776111111111</v>
+        <v>-1.0674148</v>
       </c>
       <c r="R6" t="n">
-        <v>0.003406810958904111</v>
+        <v>-0.00752754651162791</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">cu2410C76000                  </t>
+          <t xml:space="preserve">sc2412P480                    </t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118</v>
+        <v>3.15</v>
       </c>
       <c r="C7" t="n">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>66</v>
+        <v>2.9</v>
       </c>
       <c r="E7" t="n">
-        <v>132</v>
+        <v>3.65</v>
       </c>
       <c r="F7" t="n">
-        <v>214</v>
+        <v>13.15</v>
       </c>
       <c r="G7" t="n">
-        <v>256</v>
+        <v>5.2</v>
       </c>
       <c r="H7" t="n">
-        <v>-82</v>
+        <v>-9.5</v>
       </c>
       <c r="I7" t="n">
-        <v>42</v>
+        <v>-7.95</v>
       </c>
       <c r="J7" t="n">
-        <v>4492</v>
+        <v>37</v>
       </c>
       <c r="K7" t="n">
-        <v>2352</v>
+        <v>125</v>
       </c>
       <c r="L7" t="n">
-        <v>-90</v>
+        <v>12</v>
       </c>
       <c r="M7" t="n">
-        <v>268.403</v>
+        <v>12.77</v>
       </c>
       <c r="N7" t="n">
-        <v>0.162108</v>
+        <v>-0.121323</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>7.727272727272728</v>
+        <v>8.246575342465754</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.252652727272727</v>
+        <v>-1.000499260273973</v>
       </c>
       <c r="R7" t="n">
-        <v>0.05367491764705883</v>
+        <v>-0.01477246677740864</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">cu2410C77000                  </t>
+          <t xml:space="preserve">cu2411P74000                  </t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>68</v>
+        <v>220</v>
       </c>
       <c r="C8" t="n">
-        <v>76</v>
+        <v>284</v>
       </c>
       <c r="D8" t="n">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="E8" t="n">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="F8" t="n">
-        <v>118</v>
+        <v>430</v>
       </c>
       <c r="G8" t="n">
-        <v>138</v>
+        <v>388</v>
       </c>
       <c r="H8" t="n">
-        <v>-50</v>
+        <v>-168</v>
       </c>
       <c r="I8" t="n">
-        <v>20</v>
+        <v>-42</v>
       </c>
       <c r="J8" t="n">
-        <v>1879</v>
+        <v>1914</v>
       </c>
       <c r="K8" t="n">
-        <v>1680</v>
+        <v>1719</v>
       </c>
       <c r="L8" t="n">
-        <v>-76</v>
+        <v>86</v>
       </c>
       <c r="M8" t="n">
-        <v>54.837</v>
+        <v>191.827</v>
       </c>
       <c r="N8" t="n">
-        <v>0.097577</v>
+        <v>-0.16007</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>15</v>
+        <v>6.33587786259542</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.463655</v>
+        <v>-1.014183969465649</v>
       </c>
       <c r="R8" t="n">
-        <v>0.03741546666666666</v>
+        <v>-0.02750273493975902</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">cu2410C78000                  </t>
+          <t xml:space="preserve">cu2503C86000                  </t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42</v>
+        <v>790</v>
       </c>
       <c r="C9" t="n">
-        <v>48</v>
+        <v>790</v>
       </c>
       <c r="D9" t="n">
-        <v>26</v>
+        <v>790</v>
       </c>
       <c r="E9" t="n">
-        <v>44</v>
+        <v>790</v>
       </c>
       <c r="F9" t="n">
-        <v>62</v>
+        <v>1274</v>
       </c>
       <c r="G9" t="n">
-        <v>70</v>
+        <v>1376</v>
       </c>
       <c r="H9" t="n">
-        <v>-18</v>
+        <v>-484</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="J9" t="n">
-        <v>1079</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>2973</v>
+        <v>35</v>
       </c>
       <c r="L9" t="n">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>19.53</v>
+        <v>0.395</v>
       </c>
       <c r="N9" t="n">
-        <v>0.054583</v>
+        <v>0.247066</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>23.18181818181818</v>
+        <v>4.564556962025317</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.265333181818182</v>
+        <v>1.127746830379747</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01380030588235294</v>
+        <v>0.08211373710482531</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">cu2410C79000                  </t>
+          <t xml:space="preserve">cu2503C88000                  </t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22</v>
+        <v>634</v>
       </c>
       <c r="C10" t="n">
-        <v>28</v>
+        <v>634</v>
       </c>
       <c r="D10" t="n">
-        <v>16</v>
+        <v>634</v>
       </c>
       <c r="E10" t="n">
-        <v>24</v>
+        <v>634</v>
       </c>
       <c r="F10" t="n">
-        <v>30</v>
+        <v>906</v>
       </c>
       <c r="G10" t="n">
-        <v>32</v>
+        <v>1010</v>
       </c>
       <c r="H10" t="n">
-        <v>-6</v>
+        <v>-272</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="J10" t="n">
-        <v>598</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>892</v>
+        <v>60</v>
       </c>
       <c r="L10" t="n">
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.06</v>
+        <v>0.317</v>
       </c>
       <c r="N10" t="n">
-        <v>0.028355</v>
+        <v>0.193864</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>42.5</v>
+        <v>5.687697160883281</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.2050875</v>
+        <v>1.102639722397476</v>
       </c>
       <c r="R10" t="n">
-        <v>0.005492764705882356</v>
+        <v>0.05213071547420967</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">cu2411C78000                  </t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>250</v>
-      </c>
-      <c r="C11" t="n">
-        <v>278</v>
-      </c>
-      <c r="D11" t="n">
+          <t xml:space="preserve">cu2503P64000                  </t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
         <v>216</v>
       </c>
-      <c r="E11" t="n">
-        <v>278</v>
-      </c>
       <c r="F11" t="n">
-        <v>392</v>
+        <v>118</v>
       </c>
       <c r="G11" t="n">
-        <v>478</v>
+        <v>216</v>
       </c>
       <c r="H11" t="n">
-        <v>-114</v>
+        <v>98</v>
       </c>
       <c r="I11" t="n">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="J11" t="n">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1260</v>
+        <v>107</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>41.253</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.176273</v>
+        <v>-0.049693</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>6.086330935251799</v>
+        <v>20.19444444444444</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.07285581294964</v>
+        <v>-1.003522527777778</v>
       </c>
       <c r="R11" t="n">
-        <v>0.04093251182033099</v>
+        <v>-0.002635156808803295</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">cu2411C79000                  </t>
+          <t xml:space="preserve">cu2503P67000                  </t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>178</v>
+        <v>324</v>
       </c>
       <c r="C12" t="n">
-        <v>202</v>
+        <v>324</v>
       </c>
       <c r="D12" t="n">
-        <v>156</v>
+        <v>324</v>
       </c>
       <c r="E12" t="n">
-        <v>202</v>
+        <v>324</v>
       </c>
       <c r="F12" t="n">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="G12" t="n">
-        <v>338</v>
+        <v>494</v>
       </c>
       <c r="H12" t="n">
-        <v>-74</v>
+        <v>20</v>
       </c>
       <c r="I12" t="n">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="J12" t="n">
-        <v>224</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>433</v>
+        <v>48</v>
       </c>
       <c r="L12" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>19.573</v>
+        <v>0.486</v>
       </c>
       <c r="N12" t="n">
-        <v>0.133606</v>
+        <v>-0.099246</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>8.376237623762377</v>
+        <v>13.46296296296296</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.119115603960396</v>
+        <v>-1.336145222222222</v>
       </c>
       <c r="R12" t="n">
-        <v>0.03017125531914893</v>
+        <v>-0.03233992572214581</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">cu2411C80000                  </t>
+          <t xml:space="preserve">cu2503P68000                  </t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>136</v>
+        <v>394</v>
       </c>
       <c r="C13" t="n">
-        <v>148</v>
+        <v>394</v>
       </c>
       <c r="D13" t="n">
-        <v>112</v>
+        <v>384</v>
       </c>
       <c r="E13" t="n">
-        <v>148</v>
+        <v>384</v>
       </c>
       <c r="F13" t="n">
-        <v>190</v>
+        <v>402</v>
       </c>
       <c r="G13" t="n">
-        <v>238</v>
+        <v>628</v>
       </c>
       <c r="H13" t="n">
-        <v>-42</v>
+        <v>-18</v>
       </c>
       <c r="I13" t="n">
-        <v>48</v>
+        <v>226</v>
       </c>
       <c r="J13" t="n">
-        <v>319</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>683</v>
+        <v>25</v>
       </c>
       <c r="L13" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>20.556</v>
+        <v>0.389</v>
       </c>
       <c r="N13" t="n">
-        <v>0.099513</v>
+        <v>-0.120965</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>11.43243243243243</v>
+        <v>11.359375</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.137675648648649</v>
+        <v>-1.374086796875</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0207469976359338</v>
+        <v>-0.04358090096286107</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">cu2411C82000                  </t>
+          <t xml:space="preserve">cu2503P69000                  </t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>84</v>
+        <v>486</v>
       </c>
       <c r="C14" t="n">
-        <v>88</v>
+        <v>486</v>
       </c>
       <c r="D14" t="n">
-        <v>70</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>82</v>
+        <v>486</v>
       </c>
       <c r="F14" t="n">
-        <v>86</v>
+        <v>528</v>
       </c>
       <c r="G14" t="n">
-        <v>108</v>
+        <v>788</v>
       </c>
       <c r="H14" t="n">
-        <v>-4</v>
+        <v>-42</v>
       </c>
       <c r="I14" t="n">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="J14" t="n">
-        <v>220</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>467</v>
+        <v>33</v>
       </c>
       <c r="L14" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>8.548</v>
+        <v>0.243</v>
       </c>
       <c r="N14" t="n">
-        <v>0.051355</v>
+        <v>-0.145312</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>20.63414634146341</v>
+        <v>8.975308641975309</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.059666585365854</v>
+        <v>-1.304220049382716</v>
       </c>
       <c r="R14" t="n">
-        <v>0.005380478723404253</v>
+        <v>-0.05008541403026134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">cu2411C86000                  </t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+          <t xml:space="preserve">cu2503P70000                  </t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>612</v>
+      </c>
+      <c r="C15" t="n">
+        <v>612</v>
+      </c>
+      <c r="D15" t="n">
+        <v>612</v>
+      </c>
       <c r="E15" t="n">
-        <v>18</v>
+        <v>612</v>
       </c>
       <c r="F15" t="n">
-        <v>14</v>
+        <v>680</v>
       </c>
       <c r="G15" t="n">
-        <v>18</v>
+        <v>982</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>-68</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>302</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>288</v>
+        <v>39</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.306</v>
       </c>
       <c r="N15" t="n">
-        <v>0.010686</v>
+        <v>-0.172993</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>94</v>
+        <v>7.127450980392157</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.004484</v>
+        <v>-1.232999127450981</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0001613829787234032</v>
+        <v>-0.05696175653370014</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">cu2412C88000                  </t>
+          <t xml:space="preserve">cu2504P64000                  </t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="F16" t="n">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="G16" t="n">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>-38</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>-38</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1368,50 +1368,50 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.009435000000000001</v>
+        <v>-0.032374</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>112.6666666666667</v>
+        <v>34.47368421052632</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.06301</v>
+        <v>-1.116051052631579</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0006430029585798814</v>
+        <v>-0.004305459541984732</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">cu2412C92000                  </t>
+          <t xml:space="preserve">cu2504P65000                  </t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>162</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>162</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1420,3793 +1420,5427 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.001816</v>
+        <v>-0.043825</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1014</v>
+        <v>24.25925925925926</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.841424</v>
+        <v>-1.063162037037037</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0008315976331360947</v>
+        <v>-0.004410152671755728</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">cu2501C79000                  </t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>552</v>
-      </c>
-      <c r="C18" t="n">
-        <v>552</v>
-      </c>
-      <c r="D18" t="n">
-        <v>540</v>
-      </c>
+          <t xml:space="preserve">cu2504P66000                  </t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>540</v>
+        <v>226</v>
       </c>
       <c r="F18" t="n">
-        <v>878</v>
+        <v>284</v>
       </c>
       <c r="G18" t="n">
-        <v>1006</v>
+        <v>226</v>
       </c>
       <c r="H18" t="n">
-        <v>-338</v>
+        <v>-58</v>
       </c>
       <c r="I18" t="n">
-        <v>128</v>
+        <v>-58</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.546</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.233527</v>
+        <v>-0.058075</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>5.455555555555556</v>
+        <v>17.38938053097345</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.274019522222222</v>
+        <v>-1.009888274336283</v>
       </c>
       <c r="R18" t="n">
-        <v>0.09303296741344198</v>
+        <v>-0.003908320610687022</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">cu2501C82000                  </t>
+          <t xml:space="preserve">ru2411P14000                  </t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>274</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>274</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>274</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>274</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>460</v>
+        <v>8</v>
       </c>
       <c r="G19" t="n">
-        <v>528</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>-186</v>
+        <v>-5</v>
       </c>
       <c r="I19" t="n">
-        <v>68</v>
+        <v>-5</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="L19" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.137</v>
+        <v>0.003</v>
       </c>
       <c r="N19" t="n">
-        <v>0.140128</v>
+        <v>-0.005651</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>10.75182481751825</v>
+        <v>278</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.506631708029197</v>
+        <v>-1.570978</v>
       </c>
       <c r="R19" t="n">
-        <v>0.06015348268839105</v>
+        <v>-0.002074205035971223</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">cu2501C84000                  </t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>210</v>
-      </c>
-      <c r="C20" t="n">
-        <v>244</v>
-      </c>
-      <c r="D20" t="n">
-        <v>198</v>
-      </c>
+          <t xml:space="preserve">ru2411P14250                  </t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>244</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>284</v>
+        <v>13</v>
       </c>
       <c r="G20" t="n">
-        <v>336</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>-40</v>
+        <v>-8</v>
       </c>
       <c r="I20" t="n">
-        <v>52</v>
+        <v>-8</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.535</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0.096193</v>
+        <v>-0.009273999999999999</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>12.07377049180328</v>
+        <v>166.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.161412204918033</v>
+        <v>-1.5469032</v>
       </c>
       <c r="R20" t="n">
-        <v>0.02133593686354379</v>
+        <v>-0.003334395683453237</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">cu2501C86000                  </t>
+          <t xml:space="preserve">ru2411P14500                  </t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>162</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="G21" t="n">
-        <v>204</v>
+        <v>9</v>
       </c>
       <c r="H21" t="n">
-        <v>-14</v>
+        <v>-10</v>
       </c>
       <c r="I21" t="n">
+        <v>-11</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K21" t="n">
         <v>30</v>
       </c>
-      <c r="J21" t="n">
-        <v>11</v>
-      </c>
-      <c r="K21" t="n">
-        <v>60</v>
-      </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="M21" t="n">
-        <v>0.868</v>
+        <v>0.076</v>
       </c>
       <c r="N21" t="n">
-        <v>0.06338100000000001</v>
+        <v>-0.014592</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>18.4125</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.1670026625</v>
+        <v>-1.2169728</v>
       </c>
       <c r="R21" t="n">
-        <v>0.01251235098438562</v>
+        <v>-0.00277655635491607</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">cu2501C90000                  </t>
+          <t xml:space="preserve">ru2411P15000                  </t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="D22" t="n">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="F22" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G22" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>-25</v>
       </c>
       <c r="I22" t="n">
-        <v>12</v>
+        <v>-20</v>
       </c>
       <c r="J22" t="n">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="K22" t="n">
-        <v>85</v>
+        <v>278</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="M22" t="n">
-        <v>0.614</v>
+        <v>5.864</v>
       </c>
       <c r="N22" t="n">
-        <v>0.02526</v>
+        <v>-0.033508</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>44.63636363636363</v>
+        <v>43.89473684210526</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.127514545454545</v>
+        <v>-1.470824842105263</v>
       </c>
       <c r="R22" t="n">
-        <v>0.003422647657841139</v>
+        <v>-0.01148959712230216</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">cu2501C94000                  </t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+          <t xml:space="preserve">ru2411P15250                  </t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>30</v>
+      </c>
+      <c r="D23" t="n">
+        <v>16</v>
+      </c>
       <c r="E23" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F23" t="n">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="G23" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>-34</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>-28</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="K23" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>0.609</v>
       </c>
       <c r="N23" t="n">
-        <v>0.008924</v>
+        <v>-0.048068</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>133.9090909090909</v>
+        <v>27.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.195004727272727</v>
+        <v>-1.3362904</v>
       </c>
       <c r="R23" t="n">
-        <v>0.001522889341479972</v>
+        <v>-0.01382584172661871</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">cu2502C84000                  </t>
+          <t xml:space="preserve">ru2411P15500                  </t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>260</v>
+        <v>26</v>
       </c>
       <c r="C24" t="n">
-        <v>260</v>
+        <v>42</v>
       </c>
       <c r="D24" t="n">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="E24" t="n">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="F24" t="n">
-        <v>290</v>
+        <v>89</v>
       </c>
       <c r="G24" t="n">
-        <v>376</v>
+        <v>54</v>
       </c>
       <c r="H24" t="n">
-        <v>-30</v>
+        <v>-66</v>
       </c>
       <c r="I24" t="n">
-        <v>86</v>
+        <v>-35</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="K24" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="L24" t="n">
-        <v>-1</v>
+        <v>-14</v>
       </c>
       <c r="M24" t="n">
-        <v>0.13</v>
+        <v>1.298</v>
       </c>
       <c r="N24" t="n">
-        <v>0.103642</v>
+        <v>-0.06683799999999999</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>11.74615384615385</v>
+        <v>36.26086956521739</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.217394876923077</v>
+        <v>-2.423604</v>
       </c>
       <c r="R24" t="n">
-        <v>0.02733123379174853</v>
+        <v>-0.04110331654676258</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">cu2502C86000                  </t>
+          <t xml:space="preserve">ru2411P15750                  </t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>214</v>
+        <v>52</v>
       </c>
       <c r="D25" t="n">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="E25" t="n">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="F25" t="n">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="G25" t="n">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="H25" t="n">
-        <v>32</v>
+        <v>-71</v>
       </c>
       <c r="I25" t="n">
-        <v>58</v>
+        <v>-45</v>
       </c>
       <c r="J25" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K25" t="n">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="L25" t="n">
-        <v>-18</v>
+        <v>11</v>
       </c>
       <c r="M25" t="n">
-        <v>3.46</v>
+        <v>1.078</v>
       </c>
       <c r="N25" t="n">
-        <v>0.069815</v>
+        <v>-0.090346</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>14.54285714285714</v>
+        <v>16.35294117647059</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.015309571428571</v>
+        <v>-1.477422823529412</v>
       </c>
       <c r="R25" t="n">
-        <v>0.005853359528487223</v>
+        <v>-0.0347196762589928</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">cu2503C82000                  </t>
+          <t xml:space="preserve">ru2411P16000                  </t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>510</v>
+        <v>22</v>
       </c>
       <c r="C26" t="n">
-        <v>510</v>
+        <v>81</v>
       </c>
       <c r="D26" t="n">
-        <v>510</v>
+        <v>22</v>
       </c>
       <c r="E26" t="n">
-        <v>510</v>
+        <v>66</v>
       </c>
       <c r="F26" t="n">
-        <v>616</v>
+        <v>163</v>
       </c>
       <c r="G26" t="n">
-        <v>802</v>
+        <v>108</v>
       </c>
       <c r="H26" t="n">
-        <v>-106</v>
+        <v>-97</v>
       </c>
       <c r="I26" t="n">
-        <v>186</v>
+        <v>-55</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>245</v>
       </c>
       <c r="K26" t="n">
-        <v>23</v>
+        <v>257</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>-8</v>
       </c>
       <c r="M26" t="n">
-        <v>0.255</v>
+        <v>13.047</v>
       </c>
       <c r="N26" t="n">
-        <v>0.178035</v>
+        <v>-0.119118</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>6.71764705882353</v>
+        <v>12.63636363636364</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.195976294117647</v>
+        <v>-1.505218363636364</v>
       </c>
       <c r="R26" t="n">
-        <v>0.05567593695271453</v>
+        <v>-0.04940791366906476</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">cu2503C84000                  </t>
+          <t xml:space="preserve">ru2411P16250                  </t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>370</v>
+        <v>46</v>
       </c>
       <c r="C27" t="n">
-        <v>370</v>
+        <v>112</v>
       </c>
       <c r="D27" t="n">
-        <v>350</v>
+        <v>43</v>
       </c>
       <c r="E27" t="n">
-        <v>368</v>
+        <v>87</v>
       </c>
       <c r="F27" t="n">
-        <v>406</v>
+        <v>213</v>
       </c>
       <c r="G27" t="n">
-        <v>552</v>
+        <v>148</v>
       </c>
       <c r="H27" t="n">
-        <v>-38</v>
+        <v>-126</v>
       </c>
       <c r="I27" t="n">
-        <v>146</v>
+        <v>-65</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="K27" t="n">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="M27" t="n">
-        <v>0.544</v>
+        <v>5.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.131155</v>
+        <v>-0.153575</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>9.309782608695652</v>
+        <v>9.586206896551724</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.221024538043478</v>
+        <v>-1.472201724137931</v>
       </c>
       <c r="R27" t="n">
-        <v>0.03782897548161122</v>
+        <v>-0.06527886690647482</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">cu2503C86000                  </t>
+          <t xml:space="preserve">ru2411P16500                  </t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>264</v>
+        <v>110</v>
       </c>
       <c r="C28" t="n">
-        <v>270</v>
+        <v>171</v>
       </c>
       <c r="D28" t="n">
-        <v>264</v>
+        <v>54</v>
       </c>
       <c r="E28" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="F28" t="n">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="G28" t="n">
-        <v>370</v>
+        <v>198</v>
       </c>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>-125</v>
       </c>
       <c r="I28" t="n">
-        <v>108</v>
+        <v>-77</v>
       </c>
       <c r="J28" t="n">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="K28" t="n">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>-26</v>
       </c>
       <c r="M28" t="n">
-        <v>0.799</v>
+        <v>17.987</v>
       </c>
       <c r="N28" t="n">
-        <v>0.094098</v>
+        <v>-0.193236</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>12.68888888888889</v>
+        <v>5.56</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.193999066666667</v>
+        <v>-1.07439216</v>
       </c>
       <c r="R28" t="n">
-        <v>0.02270467250437828</v>
+        <v>-0.04813456115107911</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">cu2503C88000                  </t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>202</v>
-      </c>
-      <c r="C29" t="n">
-        <v>206</v>
-      </c>
-      <c r="D29" t="n">
-        <v>202</v>
-      </c>
+          <t xml:space="preserve">ru2505P14500                  </t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="F29" t="n">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="G29" t="n">
-        <v>240</v>
+        <v>126</v>
       </c>
       <c r="H29" t="n">
-        <v>42</v>
+        <v>-14</v>
       </c>
       <c r="I29" t="n">
-        <v>76</v>
+        <v>-14</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>44</v>
+        <v>336</v>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.307</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0.065605</v>
+        <v>-0.066043</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>16.63106796116505</v>
+        <v>15.48412698412698</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.091081213592233</v>
+        <v>-1.022618198412699</v>
       </c>
       <c r="R29" t="n">
-        <v>0.009421295971978985</v>
+        <v>-0.005725941055868787</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">ru2410P14250                  </t>
+          <t xml:space="preserve">ru2505P14750                  </t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="C30" t="n">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="D30" t="n">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="E30" t="n">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="F30" t="n">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="G30" t="n">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="H30" t="n">
-        <v>-33</v>
+        <v>-20</v>
       </c>
       <c r="I30" t="n">
-        <v>-28</v>
+        <v>-14</v>
       </c>
       <c r="J30" t="n">
-        <v>308</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>410</v>
+        <v>67</v>
       </c>
       <c r="L30" t="n">
-        <v>54</v>
+        <v>-1</v>
       </c>
       <c r="M30" t="n">
-        <v>4.848</v>
+        <v>0.735</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.05812</v>
+        <v>-0.077455</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>19.6875</v>
+        <v>13.27210884353742</v>
       </c>
       <c r="Q30" t="n">
-        <v>-1.1442375</v>
+        <v>-1.02799119047619</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.01027847619047619</v>
+        <v>-0.007944946181445409</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">ru2410P14500                  </t>
+          <t xml:space="preserve">ru2505P15500                  </t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="C31" t="n">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="D31" t="n">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="F31" t="n">
-        <v>88</v>
+        <v>277</v>
       </c>
       <c r="G31" t="n">
-        <v>44</v>
+        <v>257</v>
       </c>
       <c r="H31" t="n">
-        <v>-58</v>
+        <v>-52</v>
       </c>
       <c r="I31" t="n">
-        <v>-44</v>
+        <v>-20</v>
       </c>
       <c r="J31" t="n">
-        <v>1489</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>1126</v>
+        <v>96</v>
       </c>
       <c r="L31" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>43.521</v>
+        <v>0.225</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.105262</v>
+        <v>-0.118378</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>10.5</v>
+        <v>8.671111111111111</v>
       </c>
       <c r="Q31" t="n">
-        <v>-1.105251</v>
+        <v>-1.026468791111111</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.02004885714285714</v>
+        <v>-0.01670452485904664</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">ru2410P14750                  </t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>51</v>
-      </c>
-      <c r="C32" t="n">
-        <v>71</v>
-      </c>
-      <c r="D32" t="n">
-        <v>42</v>
-      </c>
+          <t xml:space="preserve">br2411P12600                  </t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="G32" t="n">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>-93</v>
+        <v>-7</v>
       </c>
       <c r="I32" t="n">
-        <v>-65</v>
+        <v>-7</v>
       </c>
       <c r="J32" t="n">
-        <v>475</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>548</v>
+        <v>225</v>
       </c>
       <c r="L32" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>24.69</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.173367</v>
+        <v>-0.001918</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>5.943396226415095</v>
+        <v>574</v>
       </c>
       <c r="Q32" t="n">
-        <v>-1.030388773584906</v>
+        <v>-1.100932</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.03428271746031748</v>
+        <v>-0.0001791811846689896</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">ru2411P13500                  </t>
+          <t xml:space="preserve">br2411P14200                  </t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C33" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D33" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E33" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F33" t="n">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="G33" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="H33" t="n">
-        <v>-1</v>
+        <v>-89</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>-83</v>
       </c>
       <c r="J33" t="n">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="K33" t="n">
-        <v>16</v>
+        <v>285</v>
       </c>
       <c r="L33" t="n">
-        <v>7</v>
+        <v>-28</v>
       </c>
       <c r="M33" t="n">
-        <v>0.272</v>
+        <v>1.9635</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.03818</v>
+        <v>-0.05797</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>33.83333333333334</v>
+        <v>17.9375</v>
       </c>
       <c r="Q33" t="n">
-        <v>-1.291756666666667</v>
+        <v>-1.039836875</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.009751822660098521</v>
+        <v>-0.005452648083623689</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">ru2411P13750                  </t>
+          <t xml:space="preserve">br2411P14400                  </t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C34" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D34" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E34" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F34" t="n">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="G34" t="n">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H34" t="n">
-        <v>-11</v>
+        <v>-114</v>
       </c>
       <c r="I34" t="n">
-        <v>-1</v>
+        <v>-101</v>
       </c>
       <c r="J34" t="n">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="K34" t="n">
-        <v>29</v>
+        <v>372</v>
       </c>
       <c r="L34" t="n">
+        <v>15</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2.6955</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.078053</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
         <v>14</v>
       </c>
-      <c r="M34" t="n">
-        <v>0.399</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-0.060779</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>25.375</v>
-      </c>
       <c r="Q34" t="n">
-        <v>-1.542267125</v>
+        <v>-1.092742</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.0237653645320197</v>
+        <v>-0.01219964285714285</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">ru2411P14000                  </t>
+          <t xml:space="preserve">br2411P14600                  </t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35" t="n">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F35" t="n">
-        <v>60</v>
+        <v>195</v>
       </c>
       <c r="G35" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="H35" t="n">
-        <v>-25</v>
+        <v>-146</v>
       </c>
       <c r="I35" t="n">
-        <v>-4</v>
+        <v>-119</v>
       </c>
       <c r="J35" t="n">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="K35" t="n">
-        <v>21</v>
+        <v>314</v>
       </c>
       <c r="L35" t="n">
-        <v>12</v>
+        <v>-16</v>
       </c>
       <c r="M35" t="n">
-        <v>0.539</v>
+        <v>1.7465</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.09150700000000001</v>
+        <v>-0.102571</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>17.4</v>
+        <v>11.71428571428571</v>
       </c>
       <c r="Q35" t="n">
-        <v>-1.5922218</v>
+        <v>-1.201546</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.03929475862068965</v>
+        <v>-0.02596120731707316</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">ru2411P14250                  </t>
+          <t xml:space="preserve">br2411P14800                  </t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C36" t="n">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D36" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E36" t="n">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="F36" t="n">
-        <v>96</v>
+        <v>243</v>
       </c>
       <c r="G36" t="n">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="H36" t="n">
-        <v>-47</v>
+        <v>-174</v>
       </c>
       <c r="I36" t="n">
-        <v>-7</v>
+        <v>-140</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="K36" t="n">
-        <v>9</v>
+        <v>272</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="M36" t="n">
-        <v>0.16</v>
+        <v>3.2745</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.132405</v>
+        <v>-0.131767</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>12.42857142857143</v>
+        <v>8.318840579710145</v>
       </c>
       <c r="Q36" t="n">
-        <v>-1.645605</v>
+        <v>-1.096148666666667</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.06259850574712643</v>
+        <v>-0.02739752787456445</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">ru2411P14500                  </t>
+          <t xml:space="preserve">br2411P15000                  </t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C37" t="n">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="D37" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E37" t="n">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="F37" t="n">
-        <v>148</v>
+        <v>299</v>
       </c>
       <c r="G37" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H37" t="n">
-        <v>-100</v>
+        <v>-205</v>
       </c>
       <c r="I37" t="n">
-        <v>-15</v>
+        <v>-162</v>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>1881</v>
       </c>
       <c r="K37" t="n">
-        <v>38</v>
+        <v>1332</v>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>561</v>
       </c>
       <c r="M37" t="n">
-        <v>0.131</v>
+        <v>89.3175</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.182534</v>
+        <v>-0.165711</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>12.6875</v>
+        <v>6.106382978723405</v>
       </c>
       <c r="Q37" t="n">
-        <v>-2.315900125</v>
+        <v>-1.011894829787234</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.1181031822660099</v>
+        <v>-0.02908527526132404</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">ru2411P14750                  </t>
+          <t xml:space="preserve">br2411P15400                  </t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C38" t="n">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="D38" t="n">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E38" t="n">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="F38" t="n">
-        <v>217</v>
+        <v>437</v>
       </c>
       <c r="G38" t="n">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="H38" t="n">
-        <v>-108</v>
+        <v>-298</v>
       </c>
       <c r="I38" t="n">
-        <v>-25</v>
+        <v>-207</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="K38" t="n">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="M38" t="n">
-        <v>0.109</v>
+        <v>10.2755</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.242705</v>
+        <v>-0.247112</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>5.587155963302752</v>
+        <v>4.129496402877698</v>
       </c>
       <c r="Q38" t="n">
-        <v>-1.356030688073395</v>
+        <v>-1.020448115107914</v>
       </c>
       <c r="R38" t="n">
-        <v>-0.1071628735632184</v>
+        <v>-0.06479243205574914</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">ru2501P14250                  </t>
+          <t xml:space="preserve">br2412P14000                  </t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="C39" t="n">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="D39" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="E39" t="n">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F39" t="n">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="G39" t="n">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="H39" t="n">
-        <v>-15</v>
+        <v>-77</v>
       </c>
       <c r="I39" t="n">
-        <v>-3</v>
+        <v>-56</v>
       </c>
       <c r="J39" t="n">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="K39" t="n">
-        <v>690</v>
+        <v>50</v>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>-10</v>
       </c>
       <c r="M39" t="n">
-        <v>3.695</v>
+        <v>1.7685</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.072976</v>
+        <v>-0.102626</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>15.01754385964912</v>
+        <v>10.07228915662651</v>
       </c>
       <c r="Q39" t="n">
-        <v>-1.095920280701755</v>
+        <v>-1.033678746987952</v>
       </c>
       <c r="R39" t="n">
-        <v>-0.01124659813084113</v>
+        <v>-0.01353264832535885</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">ru2501P14500                  </t>
+          <t xml:space="preserve">br2412P14200                  </t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="C40" t="n">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="D40" t="n">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="E40" t="n">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="F40" t="n">
-        <v>100</v>
+        <v>198</v>
       </c>
       <c r="G40" t="n">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="H40" t="n">
-        <v>-26</v>
+        <v>-96</v>
       </c>
       <c r="I40" t="n">
-        <v>-5</v>
+        <v>-66</v>
       </c>
       <c r="J40" t="n">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="K40" t="n">
-        <v>858</v>
+        <v>51</v>
       </c>
       <c r="L40" t="n">
-        <v>9</v>
+        <v>-2</v>
       </c>
       <c r="M40" t="n">
-        <v>13.104</v>
+        <v>6.06</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.095252</v>
+        <v>-0.124402</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>11.56756756756757</v>
+        <v>8.196078431372548</v>
       </c>
       <c r="Q40" t="n">
-        <v>-1.101833945945946</v>
+        <v>-1.019608549019608</v>
       </c>
       <c r="R40" t="n">
-        <v>-0.01703780373831777</v>
+        <v>-0.01757066507177032</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">ru2501P14750                  </t>
+          <t xml:space="preserve">br2412P14400                  </t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="C41" t="n">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="D41" t="n">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="E41" t="n">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="F41" t="n">
-        <v>137</v>
+        <v>241</v>
       </c>
       <c r="G41" t="n">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="H41" t="n">
-        <v>-44</v>
+        <v>-117</v>
       </c>
       <c r="I41" t="n">
-        <v>-9</v>
+        <v>-76</v>
       </c>
       <c r="J41" t="n">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="K41" t="n">
-        <v>786</v>
+        <v>72</v>
       </c>
       <c r="L41" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="M41" t="n">
-        <v>19.202</v>
+        <v>2.4185</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.121625</v>
+        <v>-0.148676</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>9.204301075268818</v>
+        <v>6.741935483870968</v>
       </c>
       <c r="Q41" t="n">
-        <v>-1.11947311827957</v>
+        <v>-1.002364</v>
       </c>
       <c r="R41" t="n">
-        <v>-0.02619407126168223</v>
+        <v>-0.02240306220095695</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">ru2501P15000                  </t>
+          <t xml:space="preserve">au2411C648                    </t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>116</v>
+        <v>0.18</v>
       </c>
       <c r="C42" t="n">
-        <v>141</v>
+        <v>1.14</v>
       </c>
       <c r="D42" t="n">
-        <v>114</v>
+        <v>0.18</v>
       </c>
       <c r="E42" t="n">
-        <v>123</v>
+        <v>0.48</v>
       </c>
       <c r="F42" t="n">
-        <v>182</v>
+        <v>2.32</v>
       </c>
       <c r="G42" t="n">
-        <v>169</v>
+        <v>1.4</v>
       </c>
       <c r="H42" t="n">
-        <v>-59</v>
+        <v>-1.84</v>
       </c>
       <c r="I42" t="n">
-        <v>-13</v>
+        <v>-0.92</v>
       </c>
       <c r="J42" t="n">
-        <v>1896</v>
+        <v>6</v>
       </c>
       <c r="K42" t="n">
-        <v>2169</v>
+        <v>5</v>
       </c>
       <c r="L42" t="n">
-        <v>141</v>
+        <v>-2</v>
       </c>
       <c r="M42" t="n">
-        <v>235.35</v>
+        <v>0.482</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.152148</v>
+        <v>0.088437</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>6.959349593495935</v>
+        <v>14.375</v>
       </c>
       <c r="Q42" t="n">
-        <v>-1.05885112195122</v>
+        <v>1.271281875</v>
       </c>
       <c r="R42" t="n">
-        <v>-0.03031879906542056</v>
+        <v>0.02502392173913044</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">au2411P480                    </t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+          <t xml:space="preserve">au2411P552                    </t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
       <c r="E43" t="n">
-        <v>0.34</v>
+        <v>1.24</v>
       </c>
       <c r="F43" t="n">
-        <v>0.02</v>
+        <v>2.64</v>
       </c>
       <c r="G43" t="n">
-        <v>0.34</v>
+        <v>1.4</v>
       </c>
       <c r="H43" t="n">
-        <v>0.32</v>
+        <v>-1.4</v>
       </c>
       <c r="I43" t="n">
-        <v>0.32</v>
+        <v>-1.24</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>6.81</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.018409</v>
+        <v>-0.085144</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>62.88235294117646</v>
+        <v>12.41935483870968</v>
       </c>
       <c r="Q43" t="n">
-        <v>-1.157601235294117</v>
+        <v>-1.057433548387097</v>
       </c>
       <c r="R43" t="n">
-        <v>-0.002799040224508883</v>
+        <v>-0.01148027012987013</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">au2411P488                    </t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
+          <t xml:space="preserve">au2411P560                    </t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.2</v>
+      </c>
       <c r="E44" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="F44" t="n">
-        <v>0.04</v>
+        <v>3.98</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.34</v>
       </c>
       <c r="H44" t="n">
-        <v>0.52</v>
+        <v>-2.28</v>
       </c>
       <c r="I44" t="n">
-        <v>0.52</v>
+        <v>-1.64</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>8.465999999999999</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.028734</v>
+        <v>-0.129734</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>38.17857142857142</v>
+        <v>9.058823529411764</v>
       </c>
       <c r="Q44" t="n">
-        <v>-1.097023071428571</v>
+        <v>-1.175237411764706</v>
       </c>
       <c r="R44" t="n">
-        <v>-0.00329391768007483</v>
+        <v>-0.03366567532467531</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">au2411P496                    </t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
+          <t xml:space="preserve">au2411P568                    </t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.58</v>
+      </c>
       <c r="E45" t="n">
-        <v>0.92</v>
+        <v>2.02</v>
       </c>
       <c r="F45" t="n">
-        <v>0.08</v>
+        <v>5.76</v>
       </c>
       <c r="G45" t="n">
-        <v>0.92</v>
+        <v>3.72</v>
       </c>
       <c r="H45" t="n">
-        <v>0.84</v>
+        <v>-3.74</v>
       </c>
       <c r="I45" t="n">
-        <v>0.84</v>
+        <v>-2.04</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="K45" t="n">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>19.06</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.043662</v>
+        <v>-0.187297</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>23.23913043478261</v>
+        <v>7.623762376237623</v>
       </c>
       <c r="Q45" t="n">
-        <v>-1.014666913043478</v>
+        <v>-1.427907821782178</v>
       </c>
       <c r="R45" t="n">
-        <v>-0.002509943872778295</v>
+        <v>-0.0806956974025974</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">au2411P520                    </t>
+          <t xml:space="preserve">au2411P576                    </t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.8</v>
+        <v>2.18</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8</v>
+        <v>1.98</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8</v>
+        <v>8.08</v>
       </c>
       <c r="G46" t="n">
-        <v>3.1</v>
+        <v>5.64</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>-5.08</v>
       </c>
       <c r="I46" t="n">
-        <v>2.3</v>
+        <v>-2.44</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="K46" t="n">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="L46" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="M46" t="n">
-        <v>0.08</v>
+        <v>17.302</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.121926</v>
+        <v>-0.258121</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>26.725</v>
+        <v>5.133333333333334</v>
       </c>
       <c r="Q46" t="n">
-        <v>-3.25847235</v>
+        <v>-1.325021133333333</v>
       </c>
       <c r="R46" t="n">
-        <v>-0.08907009728718429</v>
+        <v>-0.1135991168831169</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">au2411P528                    </t>
+          <t xml:space="preserve">au2411P584                    </t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.2</v>
+        <v>3.86</v>
       </c>
       <c r="C47" t="n">
-        <v>1.6</v>
+        <v>4.58</v>
       </c>
       <c r="D47" t="n">
-        <v>1.18</v>
+        <v>3.48</v>
       </c>
       <c r="E47" t="n">
-        <v>1.26</v>
+        <v>4.5</v>
       </c>
       <c r="F47" t="n">
-        <v>1.44</v>
+        <v>10.94</v>
       </c>
       <c r="G47" t="n">
-        <v>4.42</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.18</v>
+        <v>-6.44</v>
       </c>
       <c r="I47" t="n">
-        <v>2.98</v>
+        <v>-2.74</v>
       </c>
       <c r="J47" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="K47" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M47" t="n">
-        <v>1.628</v>
+        <v>10.744</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.161591</v>
+        <v>-0.338898</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>16.96825396825397</v>
+        <v>3.422222222222222</v>
       </c>
       <c r="Q47" t="n">
-        <v>-2.741917126984127</v>
+        <v>-1.159784266666667</v>
       </c>
       <c r="R47" t="n">
-        <v>-0.1121805537885875</v>
+        <v>-0.1457188441558441</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">au2504P488                    </t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="C48" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="D48" t="n">
-        <v>2.52</v>
-      </c>
+          <t xml:space="preserve">au2504P472                    </t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>2.52</v>
+        <v>0.46</v>
       </c>
       <c r="F48" t="n">
-        <v>3.2</v>
+        <v>0.46</v>
       </c>
       <c r="G48" t="n">
-        <v>2.94</v>
+        <v>0.46</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.68</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.26</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="L48" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0.252</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.08304300000000001</v>
+        <v>-0.017272</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>13.02380952380952</v>
+        <v>69.04347826086956</v>
       </c>
       <c r="Q48" t="n">
-        <v>-1.081536214285714</v>
+        <v>-1.192518956521739</v>
       </c>
       <c r="R48" t="n">
-        <v>-0.01263679524680073</v>
+        <v>-0.003038534005037782</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">au2504P496                    </t>
+          <t xml:space="preserve">au2506P512                    </t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2.86</v>
+        <v>3.66</v>
       </c>
       <c r="C49" t="n">
-        <v>2.86</v>
+        <v>3.72</v>
       </c>
       <c r="D49" t="n">
-        <v>2.86</v>
+        <v>3.66</v>
       </c>
       <c r="E49" t="n">
-        <v>2.86</v>
+        <v>3.72</v>
       </c>
       <c r="F49" t="n">
-        <v>4.2</v>
+        <v>5.34</v>
       </c>
       <c r="G49" t="n">
-        <v>3.88</v>
+        <v>4.56</v>
       </c>
       <c r="H49" t="n">
-        <v>-1.34</v>
+        <v>-1.62</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.32</v>
+        <v>-0.78</v>
       </c>
       <c r="J49" t="n">
         <v>2</v>
       </c>
       <c r="K49" t="n">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M49" t="n">
-        <v>0.674</v>
+        <v>0.738</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.104347</v>
+        <v>-0.106029</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>11.47552447552448</v>
+        <v>9.661290322580644</v>
       </c>
       <c r="Q49" t="n">
-        <v>-1.197436552447553</v>
+        <v>-1.024376951612903</v>
       </c>
       <c r="R49" t="n">
-        <v>-0.02629801828153565</v>
+        <v>-0.01349777796327212</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">ag2410C7600                   </t>
+          <t xml:space="preserve">au2506P520                    </t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>22.5</v>
+        <v>4.36</v>
       </c>
       <c r="C50" t="n">
-        <v>26</v>
+        <v>4.42</v>
       </c>
       <c r="D50" t="n">
-        <v>17</v>
+        <v>4.36</v>
       </c>
       <c r="E50" t="n">
-        <v>21</v>
+        <v>4.42</v>
       </c>
       <c r="F50" t="n">
-        <v>34</v>
+        <v>6.62</v>
       </c>
       <c r="G50" t="n">
-        <v>27</v>
+        <v>5.74</v>
       </c>
       <c r="H50" t="n">
-        <v>-13</v>
+        <v>-2.2</v>
       </c>
       <c r="I50" t="n">
-        <v>-7</v>
+        <v>-0.88</v>
       </c>
       <c r="J50" t="n">
-        <v>5839</v>
+        <v>2</v>
       </c>
       <c r="K50" t="n">
-        <v>7294</v>
+        <v>35</v>
       </c>
       <c r="L50" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>183.5985</v>
+        <v>0.878</v>
       </c>
       <c r="N50" t="n">
-        <v>0.118611</v>
+        <v>-0.127805</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>8.714285714285714</v>
+        <v>8.131221719457013</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.033610142857143</v>
+        <v>-1.039210791855204</v>
       </c>
       <c r="R50" t="n">
-        <v>0.01746799999999999</v>
+        <v>-0.02054006121313298</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">ag2410C7700                   </t>
+          <t xml:space="preserve">au2506P528                    </t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>16</v>
+        <v>5.2</v>
       </c>
       <c r="C51" t="n">
-        <v>17.5</v>
+        <v>5.2</v>
       </c>
       <c r="D51" t="n">
-        <v>11.5</v>
+        <v>5.2</v>
       </c>
       <c r="E51" t="n">
-        <v>13.5</v>
+        <v>5.2</v>
       </c>
       <c r="F51" t="n">
-        <v>23.5</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>18</v>
+        <v>7.12</v>
       </c>
       <c r="H51" t="n">
-        <v>-10</v>
+        <v>-2.94</v>
       </c>
       <c r="I51" t="n">
-        <v>-5.5</v>
+        <v>-1.02</v>
       </c>
       <c r="J51" t="n">
-        <v>4065</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>6576</v>
+        <v>19</v>
       </c>
       <c r="L51" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>84.2655</v>
+        <v>0.52</v>
       </c>
       <c r="N51" t="n">
-        <v>0.084532</v>
+        <v>-0.151866</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>13.55555555555556</v>
+        <v>6.911538461538461</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.145878222222222</v>
+        <v>-1.0496277</v>
       </c>
       <c r="R51" t="n">
-        <v>0.01699747540983606</v>
+        <v>-0.02915323427935448</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">ag2410C7800                   </t>
+          <t xml:space="preserve">au2506P536                    </t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>12</v>
+        <v>6.22</v>
       </c>
       <c r="C52" t="n">
-        <v>12</v>
+        <v>6.22</v>
       </c>
       <c r="D52" t="n">
-        <v>7</v>
+        <v>6.22</v>
       </c>
       <c r="E52" t="n">
-        <v>8.5</v>
+        <v>6.22</v>
       </c>
       <c r="F52" t="n">
-        <v>16</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="G52" t="n">
-        <v>11.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H52" t="n">
-        <v>-7.5</v>
+        <v>-3.66</v>
       </c>
       <c r="I52" t="n">
-        <v>-4.5</v>
+        <v>-1.18</v>
       </c>
       <c r="J52" t="n">
-        <v>1978</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>4692</v>
+        <v>17</v>
       </c>
       <c r="L52" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>26.22975</v>
+        <v>0.622</v>
       </c>
       <c r="N52" t="n">
-        <v>0.059191</v>
+        <v>-0.178123</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>21.52941176470588</v>
+        <v>5.778135048231511</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.274347411764706</v>
+        <v>-1.029218749196142</v>
       </c>
       <c r="R52" t="n">
-        <v>0.01549222131147541</v>
+        <v>-0.0358838530884808</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">ag2410C7900                   </t>
+          <t xml:space="preserve">al2411P19700                  </t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>7.5</v>
+        <v>50</v>
       </c>
       <c r="C53" t="n">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D53" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E53" t="n">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="F53" t="n">
-        <v>10.5</v>
+        <v>121</v>
       </c>
       <c r="G53" t="n">
-        <v>7.5</v>
+        <v>59</v>
       </c>
       <c r="H53" t="n">
-        <v>-4.5</v>
+        <v>-68</v>
       </c>
       <c r="I53" t="n">
-        <v>-3</v>
+        <v>-62</v>
       </c>
       <c r="J53" t="n">
-        <v>1592</v>
+        <v>672</v>
       </c>
       <c r="K53" t="n">
-        <v>3836</v>
+        <v>841</v>
       </c>
       <c r="L53" t="n">
-        <v>-68</v>
+        <v>146</v>
       </c>
       <c r="M53" t="n">
-        <v>14.394</v>
+        <v>15.0905</v>
       </c>
       <c r="N53" t="n">
-        <v>0.040343</v>
+        <v>-0.127841</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>30.5</v>
+        <v>7.830188679245283</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.2304615</v>
+        <v>-1.001019150943396</v>
       </c>
       <c r="R53" t="n">
-        <v>0.008878836065573766</v>
+        <v>-0.01645683855421687</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">ag2410C8200                   </t>
+          <t xml:space="preserve">al2411P19800                  </t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="F54" t="n">
-        <v>2.5</v>
+        <v>144</v>
       </c>
       <c r="G54" t="n">
-        <v>1.5</v>
+        <v>74</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.5</v>
+        <v>-85</v>
       </c>
       <c r="I54" t="n">
-        <v>-1</v>
+        <v>-70</v>
       </c>
       <c r="J54" t="n">
-        <v>1556</v>
+        <v>1875</v>
       </c>
       <c r="K54" t="n">
-        <v>4476</v>
+        <v>686</v>
       </c>
       <c r="L54" t="n">
-        <v>12</v>
+        <v>-78</v>
       </c>
       <c r="M54" t="n">
-        <v>5.898</v>
+        <v>51.9005</v>
       </c>
       <c r="N54" t="n">
-        <v>0.010952</v>
+        <v>-0.153226</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>91.5</v>
+        <v>7.033898305084746</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.002108</v>
+        <v>-1.077776101694915</v>
       </c>
       <c r="R54" t="n">
-        <v>0.000142732240437158</v>
+        <v>-0.0328412626506024</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">ag2412C9300                   </t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
+          <t xml:space="preserve">al2411P19900                  </t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>56</v>
+      </c>
+      <c r="C55" t="n">
+        <v>79</v>
+      </c>
+      <c r="D55" t="n">
+        <v>45</v>
+      </c>
       <c r="E55" t="n">
-        <v>8.5</v>
+        <v>75</v>
       </c>
       <c r="F55" t="n">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="G55" t="n">
-        <v>8.5</v>
+        <v>92</v>
       </c>
       <c r="H55" t="n">
-        <v>-3.5</v>
+        <v>-96</v>
       </c>
       <c r="I55" t="n">
-        <v>-3.5</v>
+        <v>-79</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>1258</v>
       </c>
       <c r="K55" t="n">
-        <v>274</v>
+        <v>938</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>-89</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>40.726</v>
       </c>
       <c r="N55" t="n">
-        <v>0.025241</v>
+        <v>-0.182071</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>40.23529411764706</v>
+        <v>5.533333333333333</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.015579058823529</v>
+        <v>-1.007459533333333</v>
       </c>
       <c r="R55" t="n">
-        <v>0.001014533625730993</v>
+        <v>-0.03425250602409638</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">al2410C19800                  </t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>29</v>
-      </c>
-      <c r="C56" t="n">
-        <v>68</v>
-      </c>
-      <c r="D56" t="n">
-        <v>27</v>
-      </c>
+          <t xml:space="preserve">al2412C23800                  </t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="F56" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G56" t="n">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>1914</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>1413</v>
+        <v>42</v>
       </c>
       <c r="L56" t="n">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>45.284</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>0.211534</v>
+        <v>0.01694</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>4.88</v>
+        <v>60.14285714285715</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.03228592</v>
+        <v>1.01882</v>
       </c>
       <c r="R56" t="n">
-        <v>0.04996309836065575</v>
+        <v>0.0005945843230403813</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">al2410C19900                  </t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>20</v>
-      </c>
-      <c r="C57" t="n">
-        <v>45</v>
-      </c>
-      <c r="D57" t="n">
-        <v>18</v>
-      </c>
+          <t xml:space="preserve">al2412P17300                  </t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1815</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1460</v>
+        <v>58</v>
       </c>
       <c r="L57" t="n">
-        <v>-194</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>28.645</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0.165096</v>
+        <v>-0.002071</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>6.971428571428572</v>
+        <v>536</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.150954971428571</v>
+        <v>-1.110056</v>
       </c>
       <c r="R57" t="n">
-        <v>0.04533518032786885</v>
+        <v>-0.0002091921641791045</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">al2410C20000                  </t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>16</v>
-      </c>
-      <c r="C58" t="n">
-        <v>33</v>
-      </c>
-      <c r="D58" t="n">
-        <v>13</v>
-      </c>
+          <t xml:space="preserve">al2412P17400                  </t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>5097</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>4054</v>
+        <v>59</v>
       </c>
       <c r="L58" t="n">
-        <v>-320</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>63.054</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>0.126528</v>
+        <v>-0.002783</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>9.384615384615385</v>
+        <v>536</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.187416615384616</v>
+        <v>-1.491688</v>
       </c>
       <c r="R58" t="n">
-        <v>0.03345311475409837</v>
+        <v>-0.0009225205223880595</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">al2410C20200                  </t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>7</v>
-      </c>
-      <c r="C59" t="n">
-        <v>18</v>
-      </c>
-      <c r="D59" t="n">
-        <v>7</v>
-      </c>
+          <t xml:space="preserve">al2412P17500                  </t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>-1</v>
       </c>
       <c r="I59" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="J59" t="n">
-        <v>1515</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>1928</v>
+        <v>67</v>
       </c>
       <c r="L59" t="n">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>8.484999999999999</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>0.069456</v>
+        <v>-0.003662</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>20.33333333333333</v>
+        <v>536</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.412272</v>
+        <v>-1.962832</v>
       </c>
       <c r="R59" t="n">
-        <v>0.02369154098360655</v>
+        <v>-0.001803160447761194</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">al2410C20400                  </t>
+          <t xml:space="preserve">al2501P18500                  </t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="C60" t="n">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D60" t="n">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="E60" t="n">
+        <v>63</v>
+      </c>
+      <c r="F60" t="n">
+        <v>109</v>
+      </c>
+      <c r="G60" t="n">
+        <v>102</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-46</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-7</v>
+      </c>
+      <c r="J60" t="n">
         <v>7</v>
       </c>
-      <c r="F60" t="n">
-        <v>6</v>
-      </c>
-      <c r="G60" t="n">
-        <v>7</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>709</v>
-      </c>
       <c r="K60" t="n">
-        <v>1001</v>
+        <v>26</v>
       </c>
       <c r="L60" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>2.205</v>
+        <v>0.242</v>
       </c>
       <c r="N60" t="n">
-        <v>0.034508</v>
+        <v>-0.104546</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>34.85714285714285</v>
+        <v>9.682539682539682</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.202850285714286</v>
+        <v>-1.012270793650794</v>
       </c>
       <c r="R60" t="n">
-        <v>0.006809459016393437</v>
+        <v>-0.01206468524590164</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">al2411P16900                  </t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
+          <t xml:space="preserve">al2501P18600                  </t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>80</v>
+      </c>
+      <c r="C61" t="n">
+        <v>80</v>
+      </c>
+      <c r="D61" t="n">
+        <v>69</v>
+      </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>-54</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K61" t="n">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>0.269</v>
       </c>
       <c r="N61" t="n">
-        <v>-0.002909</v>
+        <v>-0.114972</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>353</v>
+        <v>8.840579710144928</v>
       </c>
       <c r="Q61" t="n">
-        <v>-1.026877</v>
+        <v>-1.016419130434783</v>
       </c>
       <c r="R61" t="n">
-        <v>-8.437960339943369e-05</v>
+        <v>-0.01486227540983606</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">al2412C21000                  </t>
+          <t xml:space="preserve">al2501P18700                  </t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="C62" t="n">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="D62" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="E62" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="F62" t="n">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="G62" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="H62" t="n">
-        <v>-26</v>
+        <v>-63</v>
       </c>
       <c r="I62" t="n">
-        <v>49</v>
+        <v>-9</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K62" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="M62" t="n">
-        <v>0.023</v>
+        <v>0.287</v>
       </c>
       <c r="N62" t="n">
-        <v>0.157547</v>
+        <v>-0.126568</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>8.739130434782609</v>
+        <v>8.133333333333333</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.376823782608696</v>
+        <v>-1.029419733333333</v>
       </c>
       <c r="R62" t="n">
-        <v>0.06114690547263682</v>
+        <v>-0.01917881967213116</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">al2412C21200                  </t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>36</v>
-      </c>
-      <c r="C63" t="n">
-        <v>46</v>
-      </c>
-      <c r="D63" t="n">
-        <v>36</v>
-      </c>
+          <t xml:space="preserve">zn2412P20200                  </t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="G63" t="n">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="I63" t="n">
-        <v>41</v>
+        <v>-4</v>
       </c>
       <c r="J63" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="L63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0.0825</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>0.129992</v>
+        <v>-0.0018</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>8.739130434782609</v>
+        <v>882</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.136017043478261</v>
+        <v>-1.5876</v>
       </c>
       <c r="R63" t="n">
-        <v>0.03043884577114427</v>
+        <v>-0.0006682539682539683</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">al2412C21400                  </t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>29</v>
-      </c>
-      <c r="C64" t="n">
-        <v>38</v>
-      </c>
-      <c r="D64" t="n">
-        <v>29</v>
-      </c>
+          <t xml:space="preserve">zn2412P20400                  </t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G64" t="n">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="I64" t="n">
-        <v>34</v>
+        <v>-6</v>
       </c>
       <c r="J64" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L64" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0.0795</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0.106024</v>
+        <v>-0.002655</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>10.57894736842105</v>
+        <v>882</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.121622315789474</v>
+        <v>-2.34171</v>
       </c>
       <c r="R64" t="n">
-        <v>0.02151880597014924</v>
+        <v>-0.00152422335600907</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">al2412C21600                  </t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>27</v>
-      </c>
-      <c r="C65" t="n">
-        <v>27</v>
-      </c>
-      <c r="D65" t="n">
-        <v>27</v>
-      </c>
+          <t xml:space="preserve">zn2412P20600                  </t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="F65" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="I65" t="n">
-        <v>28</v>
+        <v>-8</v>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="L65" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>0.085843</v>
+        <v>-0.003833</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>14.88888888888889</v>
+        <v>441</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.278106888888889</v>
+        <v>-1.690353</v>
       </c>
       <c r="R65" t="n">
-        <v>0.02444439552238806</v>
+        <v>-0.001574117913832199</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">al2412C21800                  </t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>22</v>
-      </c>
-      <c r="C66" t="n">
-        <v>25</v>
-      </c>
-      <c r="D66" t="n">
-        <v>22</v>
-      </c>
+          <t xml:space="preserve">zn2412P20800                  </t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G66" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>-11</v>
       </c>
       <c r="I66" t="n">
-        <v>22</v>
+        <v>-11</v>
       </c>
       <c r="J66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="L66" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0.0345</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0.06901599999999999</v>
+        <v>-0.005418</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>16.08</v>
+        <v>294</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.10977728</v>
+        <v>-1.592892</v>
       </c>
       <c r="R66" t="n">
-        <v>0.01111898507462686</v>
+        <v>-0.002035068027210885</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">al2412C22000                  </t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>19</v>
-      </c>
-      <c r="C67" t="n">
-        <v>19</v>
-      </c>
-      <c r="D67" t="n">
-        <v>19</v>
-      </c>
+          <t xml:space="preserve">zn2412P21200                  </t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F67" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G67" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="I67" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0.054884</v>
+        <v>-0.010232</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>21.15789473684211</v>
+        <v>126</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.161229894736842</v>
+        <v>-1.289232</v>
       </c>
       <c r="R67" t="n">
-        <v>0.01021433830845772</v>
+        <v>-0.002376698412698412</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">al2412C22200                  </t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>16</v>
-      </c>
-      <c r="C68" t="n">
-        <v>16</v>
-      </c>
-      <c r="D68" t="n">
-        <v>16</v>
-      </c>
+          <t xml:space="preserve">zn2412P21400                  </t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G68" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="H68" t="n">
-        <v>5</v>
+        <v>-24</v>
       </c>
       <c r="I68" t="n">
-        <v>15</v>
+        <v>-24</v>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0.043139</v>
+        <v>-0.013938</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>25.125</v>
+        <v>88.2</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.083867375</v>
+        <v>-1.2293316</v>
       </c>
       <c r="R68" t="n">
-        <v>0.005054980099502483</v>
+        <v>-0.00275815873015873</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">al2412C23600                  </t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
+          <t xml:space="preserve">zn2412P21600                  </t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>14</v>
+      </c>
+      <c r="C69" t="n">
+        <v>54</v>
+      </c>
+      <c r="D69" t="n">
+        <v>11</v>
+      </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>-33</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>-30</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="K69" t="n">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>0.449</v>
       </c>
       <c r="N69" t="n">
-        <v>0.006138</v>
+        <v>-0.018625</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>201</v>
+        <v>80.18181818181819</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.233738</v>
+        <v>-1.493386363636364</v>
       </c>
       <c r="R69" t="n">
-        <v>0.001193412935323383</v>
+        <v>-0.00638562925170068</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">zn2410C23600                  </t>
+          <t xml:space="preserve">pb2412P14800                  </t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="C70" t="n">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="D70" t="n">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="E70" t="n">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="F70" t="n">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="G70" t="n">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="H70" t="n">
-        <v>-92</v>
+        <v>-5</v>
       </c>
       <c r="I70" t="n">
-        <v>-16</v>
+        <v>-5</v>
       </c>
       <c r="J70" t="n">
-        <v>2449</v>
+        <v>34</v>
       </c>
       <c r="K70" t="n">
-        <v>1920</v>
+        <v>51</v>
       </c>
       <c r="L70" t="n">
-        <v>180</v>
+        <v>6</v>
       </c>
       <c r="M70" t="n">
-        <v>111.6695</v>
+        <v>0.365</v>
       </c>
       <c r="N70" t="n">
-        <v>0.248669</v>
+        <v>-0.03717</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>4.531645569620253</v>
+        <v>26.95</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.126879772151899</v>
+        <v>-1.0017315</v>
       </c>
       <c r="R70" t="n">
-        <v>0.08287249441340784</v>
+        <v>-0.001443469387755102</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">zn2410C23800                  </t>
+          <t xml:space="preserve">pb2412P15000                  </t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="C71" t="n">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="D71" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E71" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="F71" t="n">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="G71" t="n">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="H71" t="n">
-        <v>-77</v>
+        <v>-13</v>
       </c>
       <c r="I71" t="n">
-        <v>-15</v>
+        <v>-6</v>
       </c>
       <c r="J71" t="n">
-        <v>1477</v>
+        <v>82</v>
       </c>
       <c r="K71" t="n">
-        <v>1340</v>
+        <v>208</v>
       </c>
       <c r="L71" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="M71" t="n">
-        <v>44.455</v>
+        <v>1.131</v>
       </c>
       <c r="N71" t="n">
-        <v>0.195641</v>
+        <v>-0.05298</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>6.884615384615385</v>
+        <v>22.45833333333333</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.346913038461539</v>
+        <v>-1.1898425</v>
       </c>
       <c r="R71" t="n">
-        <v>0.07880673184357544</v>
+        <v>-0.01081213358070501</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">zn2410C24000                  </t>
+          <t xml:space="preserve">pb2412P15200                  </t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C72" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D72" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E72" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F72" t="n">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="G72" t="n">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H72" t="n">
-        <v>-63</v>
+        <v>-16</v>
       </c>
       <c r="I72" t="n">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="J72" t="n">
-        <v>3208</v>
+        <v>100</v>
       </c>
       <c r="K72" t="n">
-        <v>2566</v>
+        <v>267</v>
       </c>
       <c r="L72" t="n">
-        <v>413</v>
+        <v>30</v>
       </c>
       <c r="M72" t="n">
-        <v>60.7355</v>
+        <v>1.917</v>
       </c>
       <c r="N72" t="n">
-        <v>0.15043</v>
+        <v>-0.07355</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>10.84848484848485</v>
+        <v>14.18421052631579</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.631937575757576</v>
+        <v>-1.043248684210526</v>
       </c>
       <c r="R72" t="n">
-        <v>0.07211768156424582</v>
+        <v>-0.008234415584415594</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">zn2410C24200                  </t>
+          <t xml:space="preserve">pb2412P15400                  </t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C73" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D73" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E73" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F73" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G73" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H73" t="n">
-        <v>-50</v>
+        <v>-28</v>
       </c>
       <c r="I73" t="n">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="J73" t="n">
-        <v>1484</v>
+        <v>38</v>
       </c>
       <c r="K73" t="n">
-        <v>1503</v>
+        <v>49</v>
       </c>
       <c r="L73" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>16.7045</v>
+        <v>1.0155</v>
       </c>
       <c r="N73" t="n">
-        <v>0.112793</v>
+        <v>-0.099704</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>17.9</v>
+        <v>11.22916666666667</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.0189947</v>
+        <v>-1.119592833333333</v>
       </c>
       <c r="R73" t="n">
-        <v>0.06322836312849162</v>
+        <v>-0.01952921706864563</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">zn2410C24400                  </t>
+          <t xml:space="preserve">pb2412P15600                  </t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="C74" t="n">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="D74" t="n">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="E74" t="n">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F74" t="n">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="G74" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="H74" t="n">
-        <v>-38</v>
+        <v>-34</v>
       </c>
       <c r="I74" t="n">
         <v>-12</v>
       </c>
       <c r="J74" t="n">
-        <v>926</v>
+        <v>20</v>
       </c>
       <c r="K74" t="n">
-        <v>834</v>
+        <v>53</v>
       </c>
       <c r="L74" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="M74" t="n">
-        <v>7.2555</v>
+        <v>0.755</v>
       </c>
       <c r="N74" t="n">
-        <v>0.082339</v>
+        <v>-0.131388</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>27.53846153846154</v>
+        <v>7.7</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.267489384615385</v>
+        <v>-1.0116876</v>
       </c>
       <c r="R74" t="n">
-        <v>0.04901611452513967</v>
+        <v>-0.01858124675324677</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">zn2410C24600                  </t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>14</v>
-      </c>
-      <c r="C75" t="n">
-        <v>14</v>
-      </c>
-      <c r="D75" t="n">
-        <v>7</v>
-      </c>
+          <t xml:space="preserve">pb2501P14600                  </t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F75" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G75" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H75" t="n">
-        <v>-26</v>
+        <v>-30</v>
       </c>
       <c r="I75" t="n">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="J75" t="n">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>733</v>
+        <v>57</v>
       </c>
       <c r="L75" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>4.2345</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>0.059147</v>
+        <v>-0.031737</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>35.8</v>
+        <v>34</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.1174626</v>
+        <v>-1.079058</v>
       </c>
       <c r="R75" t="n">
-        <v>0.03286618994413407</v>
+        <v>-0.003258676470588237</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve">zn2410C24800                  </t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>12</v>
-      </c>
-      <c r="C76" t="n">
-        <v>12</v>
-      </c>
-      <c r="D76" t="n">
-        <v>7</v>
-      </c>
+          <t xml:space="preserve">pb2501P14800                  </t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F76" t="n">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="G76" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H76" t="n">
-        <v>-16</v>
+        <v>-39</v>
       </c>
       <c r="I76" t="n">
-        <v>-8</v>
+        <v>-39</v>
       </c>
       <c r="J76" t="n">
-        <v>533</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>927</v>
+        <v>29</v>
       </c>
       <c r="L76" t="n">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>2.3525</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>0.041531</v>
+        <v>-0.045177</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>39.77777777777778</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.652010888888889</v>
+        <v>-1.024012</v>
       </c>
       <c r="R76" t="n">
-        <v>0.01743541061452514</v>
+        <v>-0.003052455882352943</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">zn2410C25000                  </t>
+          <t xml:space="preserve">rb2411P2700                   </t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="C77" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="n">
         <v>5</v>
       </c>
-      <c r="E77" t="n">
-        <v>7</v>
-      </c>
-      <c r="F77" t="n">
-        <v>17</v>
-      </c>
       <c r="G77" t="n">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="H77" t="n">
-        <v>-10</v>
+        <v>-4</v>
       </c>
       <c r="I77" t="n">
-        <v>-6</v>
+        <v>-3.5</v>
       </c>
       <c r="J77" t="n">
-        <v>1600</v>
+        <v>171</v>
       </c>
       <c r="K77" t="n">
-        <v>3057</v>
+        <v>587</v>
       </c>
       <c r="L77" t="n">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="M77" t="n">
-        <v>4.9415</v>
+        <v>0.3005</v>
       </c>
       <c r="N77" t="n">
-        <v>0.028418</v>
+        <v>-0.01245</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>51.14285714285715</v>
+        <v>156.5</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.453377714285714</v>
+        <v>-1.948425</v>
       </c>
       <c r="R77" t="n">
-        <v>0.009420586592178771</v>
+        <v>-0.006139776357827475</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve">zn2411C24200                  </t>
+          <t xml:space="preserve">rb2411P2750                   </t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>93</v>
+        <v>0.5</v>
       </c>
       <c r="E78" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
-        <v>159</v>
+        <v>7.5</v>
       </c>
       <c r="G78" t="n">
-        <v>158</v>
+        <v>2.5</v>
       </c>
       <c r="H78" t="n">
-        <v>-59</v>
+        <v>-5.5</v>
       </c>
       <c r="I78" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="J78" t="n">
-        <v>269</v>
+        <v>145</v>
       </c>
       <c r="K78" t="n">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="L78" t="n">
-        <v>28</v>
+        <v>-56</v>
       </c>
       <c r="M78" t="n">
-        <v>14.4635</v>
+        <v>0.1645</v>
       </c>
       <c r="N78" t="n">
-        <v>0.182471</v>
+        <v>-0.018761</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>5.56</v>
+        <v>78.25</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.01453876</v>
+        <v>-1.46804825</v>
       </c>
       <c r="R78" t="n">
-        <v>0.03543341007194246</v>
+        <v>-0.006221204472843451</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">zn2411C24400                  </t>
+          <t xml:space="preserve">rb2411P2850                   </t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>92</v>
+        <v>0.5</v>
       </c>
       <c r="C79" t="n">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>75</v>
+        <v>0.5</v>
       </c>
       <c r="E79" t="n">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="F79" t="n">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="G79" t="n">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="H79" t="n">
-        <v>-47</v>
+        <v>-12</v>
       </c>
       <c r="I79" t="n">
-        <v>-2</v>
+        <v>-9</v>
       </c>
       <c r="J79" t="n">
-        <v>254</v>
+        <v>69</v>
       </c>
       <c r="K79" t="n">
-        <v>181</v>
+        <v>265</v>
       </c>
       <c r="L79" t="n">
-        <v>-2</v>
+        <v>35</v>
       </c>
       <c r="M79" t="n">
-        <v>10.9765</v>
+        <v>0.1885</v>
       </c>
       <c r="N79" t="n">
-        <v>0.154175</v>
+        <v>-0.038863</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>6.698795180722891</v>
+        <v>52.16666666666666</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.032786746987952</v>
+        <v>-2.027353166666667</v>
       </c>
       <c r="R79" t="n">
-        <v>0.02790975719424461</v>
+        <v>-0.02043864856230032</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">zn2411C24800                  </t>
+          <t xml:space="preserve">rb2411P2900                   </t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>59</v>
+        <v>0.5</v>
       </c>
       <c r="C80" t="n">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="E80" t="n">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="F80" t="n">
-        <v>84</v>
+        <v>20.5</v>
       </c>
       <c r="G80" t="n">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="H80" t="n">
-        <v>-26</v>
+        <v>-16.5</v>
       </c>
       <c r="I80" t="n">
-        <v>-3</v>
+        <v>-11.5</v>
       </c>
       <c r="J80" t="n">
-        <v>351</v>
+        <v>493</v>
       </c>
       <c r="K80" t="n">
-        <v>201</v>
+        <v>787</v>
       </c>
       <c r="L80" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M80" t="n">
-        <v>9.968500000000001</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="N80" t="n">
-        <v>0.106605</v>
+        <v>-0.053863</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>9.586206896551724</v>
+        <v>39.125</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.021937586206897</v>
+        <v>-2.107389875</v>
       </c>
       <c r="R80" t="n">
-        <v>0.01340911870503599</v>
+        <v>-0.02968058466453674</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve">zn2411C25000                  </t>
+          <t xml:space="preserve">rb2411P2950                   </t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>46</v>
+        <v>1.5</v>
       </c>
       <c r="C81" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D81" t="n">
-        <v>40</v>
+        <v>1.5</v>
       </c>
       <c r="E81" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F81" t="n">
-        <v>67</v>
+        <v>27.5</v>
       </c>
       <c r="G81" t="n">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="H81" t="n">
-        <v>-19</v>
+        <v>-17.5</v>
       </c>
       <c r="I81" t="n">
-        <v>-2</v>
+        <v>-14.5</v>
       </c>
       <c r="J81" t="n">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="K81" t="n">
-        <v>236</v>
+        <v>382</v>
       </c>
       <c r="L81" t="n">
-        <v>-16</v>
+        <v>97</v>
       </c>
       <c r="M81" t="n">
-        <v>7.7655</v>
+        <v>1.428</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08795</v>
+        <v>-0.072809</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>11.58333333333333</v>
+        <v>15.65</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.018754166666667</v>
+        <v>-1.13946085</v>
       </c>
       <c r="R81" t="n">
-        <v>0.009211870503597116</v>
+        <v>-0.01356356869009585</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve">zn2411C26500                  </t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
+          <t xml:space="preserve">rb2411P3000                   </t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>5</v>
+      </c>
+      <c r="C82" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2.5</v>
+      </c>
       <c r="E82" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="F82" t="n">
-        <v>9</v>
+        <v>36.5</v>
       </c>
       <c r="G82" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H82" t="n">
-        <v>-1</v>
+        <v>-25</v>
       </c>
       <c r="I82" t="n">
-        <v>-1</v>
+        <v>-18.5</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>2305</v>
       </c>
       <c r="K82" t="n">
-        <v>526</v>
+        <v>3195</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>16.0405</v>
       </c>
       <c r="N82" t="n">
-        <v>0.015616</v>
+        <v>-0.09594999999999999</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>69.5</v>
+        <v>13.60869565217391</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.085312</v>
+        <v>-1.305754347826087</v>
       </c>
       <c r="R82" t="n">
-        <v>0.001452201438848921</v>
+        <v>-0.0295182108626198</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">rb2411C3850                   </t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
+          <t xml:space="preserve">rb2411P3050                   </t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C83" t="n">
+        <v>10</v>
+      </c>
+      <c r="D83" t="n">
+        <v>3.5</v>
+      </c>
       <c r="E83" t="n">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="F83" t="n">
-        <v>0.5</v>
+        <v>47</v>
       </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>25</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>-37</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>1772</v>
       </c>
       <c r="K83" t="n">
+        <v>1857</v>
+      </c>
+      <c r="L83" t="n">
+        <v>501</v>
+      </c>
+      <c r="M83" t="n">
+        <v>14.889</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.123514</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>-1.9329941</v>
+      </c>
+      <c r="R83" t="n">
+        <v>-0.06750850479233227</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">rb2411P3100                   </t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>5</v>
+      </c>
+      <c r="C84" t="n">
+        <v>18</v>
+      </c>
+      <c r="D84" t="n">
+        <v>4</v>
+      </c>
+      <c r="E84" t="n">
+        <v>15</v>
+      </c>
+      <c r="F84" t="n">
+        <v>60</v>
+      </c>
+      <c r="G84" t="n">
+        <v>33</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-45</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-27</v>
+      </c>
+      <c r="J84" t="n">
+        <v>4482</v>
+      </c>
+      <c r="K84" t="n">
+        <v>2619</v>
+      </c>
+      <c r="L84" t="n">
+        <v>434</v>
+      </c>
+      <c r="M84" t="n">
+        <v>54.3375</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-0.155569</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>10.43333333333333</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>-1.623103233333334</v>
+      </c>
+      <c r="R84" t="n">
+        <v>-0.07463312140575082</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">rb2411P3150                   </t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C85" t="n">
+        <v>30</v>
+      </c>
+      <c r="D85" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E85" t="n">
+        <v>26</v>
+      </c>
+      <c r="F85" t="n">
+        <v>75</v>
+      </c>
+      <c r="G85" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-49</v>
+      </c>
+      <c r="I85" t="n">
+        <v>-31.5</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1315</v>
+      </c>
+      <c r="K85" t="n">
+        <v>994</v>
+      </c>
+      <c r="L85" t="n">
+        <v>491</v>
+      </c>
+      <c r="M85" t="n">
+        <v>28.086</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-0.192003</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>6.019230769230769</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>-1.155710365384615</v>
+      </c>
+      <c r="R85" t="n">
+        <v>-0.05776707667731631</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">rb2412P2900                   </t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C86" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D86" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E86" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F86" t="n">
+        <v>9</v>
+      </c>
+      <c r="G86" t="n">
+        <v>10</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>4</v>
+      </c>
+      <c r="K86" t="n">
+        <v>7</v>
+      </c>
+      <c r="L86" t="n">
+        <v>3</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-0.049774</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>28.92307692307692</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>-1.439617230769231</v>
+      </c>
+      <c r="R86" t="n">
+        <v>-0.0169204414893617</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">rb2412P2950                   </t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>14</v>
+      </c>
+      <c r="C87" t="n">
+        <v>14</v>
+      </c>
+      <c r="D87" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E87" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F87" t="n">
+        <v>13</v>
+      </c>
+      <c r="G87" t="n">
+        <v>14</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>4</v>
+      </c>
+      <c r="K87" t="n">
+        <v>7</v>
+      </c>
+      <c r="L87" t="n">
+        <v>3</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.0395</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-0.064692</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>22.11764705882353</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>-1.430834823529412</v>
+      </c>
+      <c r="R87" t="n">
+        <v>-0.02240413829787233</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">rb2412P3000                   </t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C88" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="D88" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E88" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F88" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="G88" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-7</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>4</v>
+      </c>
+      <c r="K88" t="n">
+        <v>7</v>
+      </c>
+      <c r="L88" t="n">
+        <v>3</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-0.082492</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>16.34782608695652</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>-1.348564869565217</v>
+      </c>
+      <c r="R88" t="n">
+        <v>-0.02636784042553192</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">rb2412P3050                   </t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C89" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D89" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E89" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F89" t="n">
+        <v>25</v>
+      </c>
+      <c r="G89" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>4</v>
+      </c>
+      <c r="K89" t="n">
+        <v>7</v>
+      </c>
+      <c r="L89" t="n">
+        <v>3</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-0.103302</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>12.12903225806452</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>-1.252953290322581</v>
+      </c>
+      <c r="R89" t="n">
+        <v>-0.02937211170212767</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">rb2412P3100                   </t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C90" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D90" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E90" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F90" t="n">
+        <v>33</v>
+      </c>
+      <c r="G90" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="I90" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="J90" t="n">
+        <v>4</v>
+      </c>
+      <c r="K90" t="n">
+        <v>7</v>
+      </c>
+      <c r="L90" t="n">
+        <v>3</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-0.127172</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>9.170731707317072</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>-1.166260292682927</v>
+      </c>
+      <c r="R90" t="n">
+        <v>-0.03199660638297873</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">rb2503P2900                   </t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>27</v>
+      </c>
+      <c r="C91" t="n">
+        <v>29</v>
+      </c>
+      <c r="D91" t="n">
+        <v>27</v>
+      </c>
+      <c r="E91" t="n">
+        <v>29</v>
+      </c>
+      <c r="F91" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="G91" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I91" t="n">
+        <v>8</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3</v>
+      </c>
+      <c r="K91" t="n">
+        <v>53</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-0.09869</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>10.62068965517241</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>-1.048155862068965</v>
+      </c>
+      <c r="R91" t="n">
+        <v>-0.0138263961038961</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">rb2503P2950                   </t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>33</v>
+      </c>
+      <c r="C92" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D92" t="n">
+        <v>33</v>
+      </c>
+      <c r="E92" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F92" t="n">
+        <v>35</v>
+      </c>
+      <c r="G92" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="I92" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3</v>
+      </c>
+      <c r="K92" t="n">
+        <v>158</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-0.114867</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>8.927536231884059</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>-1.025479304347826</v>
+      </c>
+      <c r="R92" t="n">
+        <v>-0.01572060876623378</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">rb2505P2800                   </t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="C93" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="D93" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E93" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="F93" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="G93" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="H93" t="n">
+        <v>13</v>
+      </c>
+      <c r="I93" t="n">
+        <v>22</v>
+      </c>
+      <c r="J93" t="n">
+        <v>102</v>
+      </c>
+      <c r="K93" t="n">
+        <v>295</v>
+      </c>
+      <c r="L93" t="n">
+        <v>100</v>
+      </c>
+      <c r="M93" t="n">
+        <v>7.913</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-0.096984</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>11.77777777777778</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>-1.142256</v>
+      </c>
+      <c r="R93" t="n">
+        <v>-0.02031283018867924</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">rb2505P2850                   </t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C94" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="D94" t="n">
+        <v>33</v>
+      </c>
+      <c r="E94" t="n">
+        <v>33</v>
+      </c>
+      <c r="F94" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="G94" t="n">
+        <v>48</v>
+      </c>
+      <c r="H94" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I94" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2</v>
+      </c>
+      <c r="K94" t="n">
+        <v>56</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.06950000000000001</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-0.111229</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>11.24242424242424</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>-1.250483606060606</v>
+      </c>
+      <c r="R94" t="n">
+        <v>-0.03217389757412398</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">rb2505P2900                   </t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>45</v>
+      </c>
+      <c r="C95" t="n">
+        <v>45</v>
+      </c>
+      <c r="D95" t="n">
+        <v>44</v>
+      </c>
+      <c r="E95" t="n">
+        <v>44</v>
+      </c>
+      <c r="F95" t="n">
+        <v>30</v>
+      </c>
+      <c r="G95" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="H95" t="n">
+        <v>14</v>
+      </c>
+      <c r="I95" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="J95" t="n">
+        <v>3</v>
+      </c>
+      <c r="K95" t="n">
+        <v>44</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-0.126834</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>8.431818181818182</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>-1.069441227272727</v>
+      </c>
+      <c r="R95" t="n">
+        <v>-0.02327792452830189</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">rb2505P2950                   </t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="C96" t="n">
+        <v>45</v>
+      </c>
+      <c r="D96" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="E96" t="n">
+        <v>45</v>
+      </c>
+      <c r="F96" t="n">
+        <v>37</v>
+      </c>
+      <c r="G96" t="n">
+        <v>66</v>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+      <c r="I96" t="n">
+        <v>29</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2</v>
+      </c>
+      <c r="K96" t="n">
+        <v>50</v>
+      </c>
+      <c r="L96" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.08749999999999999</v>
+      </c>
+      <c r="N96" t="n">
+        <v>-0.143568</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>8.244444444444444</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>-1.1836384</v>
+      </c>
+      <c r="R96" t="n">
+        <v>-0.03968810781671159</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">rb2505P3000                   </t>
+        </is>
+      </c>
+      <c r="B97" t="n">
         <v>65</v>
       </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0.007771</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0</v>
-      </c>
-      <c r="P83" t="n">
-        <v>142</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>1.103482</v>
-      </c>
-      <c r="R83" t="n">
-        <v>0.0007834718309859158</v>
+      <c r="C97" t="n">
+        <v>65</v>
+      </c>
+      <c r="D97" t="n">
+        <v>55</v>
+      </c>
+      <c r="E97" t="n">
+        <v>55</v>
+      </c>
+      <c r="F97" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="G97" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="H97" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I97" t="n">
+        <v>31</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2</v>
+      </c>
+      <c r="K97" t="n">
+        <v>87</v>
+      </c>
+      <c r="L97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-0.161248</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>6.745454545454545</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>-1.087691054545455</v>
+      </c>
+      <c r="R97" t="n">
+        <v>-0.0369047115902965</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">rb2505P3050                   </t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="C98" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="D98" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="E98" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="F98" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="G98" t="n">
+        <v>88</v>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+      <c r="I98" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2</v>
+      </c>
+      <c r="K98" t="n">
+        <v>26</v>
+      </c>
+      <c r="L98" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-0.180248</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5.936</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>-1.069952128</v>
+      </c>
+      <c r="R98" t="n">
+        <v>-0.04214961725067384</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">rb2505P3100                   </t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="C99" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="D99" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="E99" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="F99" t="n">
+        <v>67</v>
+      </c>
+      <c r="G99" t="n">
+        <v>101</v>
+      </c>
+      <c r="H99" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I99" t="n">
+        <v>34</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2</v>
+      </c>
+      <c r="K99" t="n">
+        <v>19</v>
+      </c>
+      <c r="L99" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-0.199881</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5.047619047619047</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>-1.008923142857143</v>
+      </c>
+      <c r="R99" t="n">
+        <v>-0.04136685849056604</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ni2412P110000                 </t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>214</v>
+      </c>
+      <c r="C100" t="n">
+        <v>214</v>
+      </c>
+      <c r="D100" t="n">
+        <v>170</v>
+      </c>
+      <c r="E100" t="n">
+        <v>204</v>
+      </c>
+      <c r="F100" t="n">
+        <v>404</v>
+      </c>
+      <c r="G100" t="n">
+        <v>210</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-200</v>
+      </c>
+      <c r="I100" t="n">
+        <v>-194</v>
+      </c>
+      <c r="J100" t="n">
+        <v>51</v>
+      </c>
+      <c r="K100" t="n">
+        <v>239</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="N100" t="n">
+        <v>-0.032278</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>32.21568627450981</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>-1.039857921568628</v>
+      </c>
+      <c r="R100" t="n">
+        <v>-0.002239155203895317</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ni2412P112000                 </t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>274</v>
+      </c>
+      <c r="C101" t="n">
+        <v>274</v>
+      </c>
+      <c r="D101" t="n">
+        <v>204</v>
+      </c>
+      <c r="E101" t="n">
+        <v>250</v>
+      </c>
+      <c r="F101" t="n">
+        <v>572</v>
+      </c>
+      <c r="G101" t="n">
+        <v>310</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-322</v>
+      </c>
+      <c r="I101" t="n">
+        <v>-262</v>
+      </c>
+      <c r="J101" t="n">
+        <v>39</v>
+      </c>
+      <c r="K101" t="n">
+        <v>235</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.9631999999999999</v>
+      </c>
+      <c r="N101" t="n">
+        <v>-0.045055</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>26.288</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>-1.18440584</v>
+      </c>
+      <c r="R101" t="n">
+        <v>-0.008728729458307972</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ni2412P114000                 </t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>286</v>
+      </c>
+      <c r="C102" t="n">
+        <v>312</v>
+      </c>
+      <c r="D102" t="n">
+        <v>260</v>
+      </c>
+      <c r="E102" t="n">
+        <v>302</v>
+      </c>
+      <c r="F102" t="n">
+        <v>794</v>
+      </c>
+      <c r="G102" t="n">
+        <v>444</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-492</v>
+      </c>
+      <c r="I102" t="n">
+        <v>-350</v>
+      </c>
+      <c r="J102" t="n">
+        <v>25</v>
+      </c>
+      <c r="K102" t="n">
+        <v>139</v>
+      </c>
+      <c r="L102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.824</v>
+      </c>
+      <c r="N102" t="n">
+        <v>-0.061255</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>21.76158940397351</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>-1.333006158940397</v>
+      </c>
+      <c r="R102" t="n">
+        <v>-0.01811729610468654</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ni2412P116000                 </t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>418</v>
+      </c>
+      <c r="C103" t="n">
+        <v>418</v>
+      </c>
+      <c r="D103" t="n">
+        <v>340</v>
+      </c>
+      <c r="E103" t="n">
+        <v>388</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1076</v>
+      </c>
+      <c r="G103" t="n">
+        <v>622</v>
+      </c>
+      <c r="H103" t="n">
+        <v>-688</v>
+      </c>
+      <c r="I103" t="n">
+        <v>-454</v>
+      </c>
+      <c r="J103" t="n">
+        <v>188</v>
+      </c>
+      <c r="K103" t="n">
+        <v>221</v>
+      </c>
+      <c r="L103" t="n">
+        <v>-82</v>
+      </c>
+      <c r="M103" t="n">
+        <v>7.2122</v>
+      </c>
+      <c r="N103" t="n">
+        <v>-0.08126700000000001</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P103" t="n">
+        <v>16.93814432989691</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>-1.376512175257732</v>
+      </c>
+      <c r="R103" t="n">
+        <v>-0.02702652465003044</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ni2412P118000                 </t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>328</v>
+      </c>
+      <c r="C104" t="n">
+        <v>586</v>
+      </c>
+      <c r="D104" t="n">
+        <v>328</v>
+      </c>
+      <c r="E104" t="n">
+        <v>496</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1426</v>
+      </c>
+      <c r="G104" t="n">
+        <v>850</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-930</v>
+      </c>
+      <c r="I104" t="n">
+        <v>-576</v>
+      </c>
+      <c r="J104" t="n">
+        <v>237</v>
+      </c>
+      <c r="K104" t="n">
+        <v>343</v>
+      </c>
+      <c r="L104" t="n">
+        <v>51</v>
+      </c>
+      <c r="M104" t="n">
+        <v>12.1876</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-0.105381</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>-1.39629825</v>
+      </c>
+      <c r="R104" t="n">
+        <v>-0.03786258490566037</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ni2412P120000                 </t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>536</v>
+      </c>
+      <c r="C105" t="n">
+        <v>688</v>
+      </c>
+      <c r="D105" t="n">
+        <v>536</v>
+      </c>
+      <c r="E105" t="n">
+        <v>648</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1856</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1140</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-1208</v>
+      </c>
+      <c r="I105" t="n">
+        <v>-716</v>
+      </c>
+      <c r="J105" t="n">
+        <v>139</v>
+      </c>
+      <c r="K105" t="n">
+        <v>331</v>
+      </c>
+      <c r="L105" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M105" t="n">
+        <v>9.2278</v>
+      </c>
+      <c r="N105" t="n">
+        <v>-0.133755</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>10.14197530864197</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>-1.356539907407407</v>
+      </c>
+      <c r="R105" t="n">
+        <v>-0.04834313755325625</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ni2412P122000                 </t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>792</v>
+      </c>
+      <c r="C106" t="n">
+        <v>880</v>
+      </c>
+      <c r="D106" t="n">
+        <v>690</v>
+      </c>
+      <c r="E106" t="n">
+        <v>880</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2372</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1498</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-1492</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-874</v>
+      </c>
+      <c r="J106" t="n">
+        <v>63</v>
+      </c>
+      <c r="K106" t="n">
+        <v>192</v>
+      </c>
+      <c r="L106" t="n">
+        <v>-13</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5.332</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-0.166385</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>7.468181818181818</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>-1.242593431818182</v>
+      </c>
+      <c r="R106" t="n">
+        <v>-0.05476278454047474</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ni2412P124000                 </t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>950</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1272</v>
+      </c>
+      <c r="D107" t="n">
+        <v>904</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1222</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2982</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1934</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-1760</v>
+      </c>
+      <c r="I107" t="n">
+        <v>-1048</v>
+      </c>
+      <c r="J107" t="n">
+        <v>39</v>
+      </c>
+      <c r="K107" t="n">
+        <v>125</v>
+      </c>
+      <c r="L107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4.1402</v>
+      </c>
+      <c r="N107" t="n">
+        <v>-0.203098</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5.378068739770868</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>-1.092275004909984</v>
+      </c>
+      <c r="R107" t="n">
+        <v>-0.05492176080340841</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ni2501P114000                 </t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>454</v>
+      </c>
+      <c r="C108" t="n">
+        <v>596</v>
+      </c>
+      <c r="D108" t="n">
+        <v>454</v>
+      </c>
+      <c r="E108" t="n">
+        <v>528</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1134</v>
+      </c>
+      <c r="G108" t="n">
+        <v>578</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-606</v>
+      </c>
+      <c r="I108" t="n">
+        <v>-556</v>
+      </c>
+      <c r="J108" t="n">
+        <v>35</v>
+      </c>
+      <c r="K108" t="n">
+        <v>76</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1.843</v>
+      </c>
+      <c r="N108" t="n">
+        <v>-0.070199</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>15.57575757575758</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>-1.093402606060606</v>
+      </c>
+      <c r="R108" t="n">
+        <v>-0.01050360505836576</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ni2501P116000                 </t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>618</v>
+      </c>
+      <c r="C109" t="n">
+        <v>706</v>
+      </c>
+      <c r="D109" t="n">
+        <v>618</v>
+      </c>
+      <c r="E109" t="n">
+        <v>662</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1468</v>
+      </c>
+      <c r="G109" t="n">
+        <v>778</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-806</v>
+      </c>
+      <c r="I109" t="n">
+        <v>-690</v>
+      </c>
+      <c r="J109" t="n">
+        <v>18</v>
+      </c>
+      <c r="K109" t="n">
+        <v>70</v>
+      </c>
+      <c r="L109" t="n">
+        <v>2</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1.2088</v>
+      </c>
+      <c r="N109" t="n">
+        <v>-0.09014999999999999</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P109" t="n">
+        <v>12.42296072507553</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>-1.119929909365559</v>
+      </c>
+      <c r="R109" t="n">
+        <v>-0.01691061527237353</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ni2501P118000                 </t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>778</v>
+      </c>
+      <c r="C110" t="n">
+        <v>932</v>
+      </c>
+      <c r="D110" t="n">
+        <v>724</v>
+      </c>
+      <c r="E110" t="n">
+        <v>838</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1866</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1034</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-1028</v>
+      </c>
+      <c r="I110" t="n">
+        <v>-832</v>
+      </c>
+      <c r="J110" t="n">
+        <v>27</v>
+      </c>
+      <c r="K110" t="n">
+        <v>82</v>
+      </c>
+      <c r="L110" t="n">
+        <v>-9</v>
+      </c>
+      <c r="M110" t="n">
+        <v>2.4716</v>
+      </c>
+      <c r="N110" t="n">
+        <v>-0.113751</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P110" t="n">
+        <v>9.813842482100238</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>-1.116334396181384</v>
+      </c>
+      <c r="R110" t="n">
+        <v>-0.02344498565175097</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ni2501P120000                 </t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1160</v>
+      </c>
+      <c r="D111" t="n">
+        <v>998</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1076</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2342</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1348</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-1266</v>
+      </c>
+      <c r="I111" t="n">
+        <v>-994</v>
+      </c>
+      <c r="J111" t="n">
+        <v>19</v>
+      </c>
+      <c r="K111" t="n">
+        <v>144</v>
+      </c>
+      <c r="L111" t="n">
+        <v>-7</v>
+      </c>
+      <c r="M111" t="n">
+        <v>2.1656</v>
+      </c>
+      <c r="N111" t="n">
+        <v>-0.141009</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P111" t="n">
+        <v>7.643122676579925</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>-1.077749085501859</v>
+      </c>
+      <c r="R111" t="n">
+        <v>-0.02862155885214006</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ni2501P122000                 </t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1064</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1522</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1064</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1394</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2906</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1730</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-1512</v>
+      </c>
+      <c r="I112" t="n">
+        <v>-1176</v>
+      </c>
+      <c r="J112" t="n">
+        <v>38</v>
+      </c>
+      <c r="K112" t="n">
+        <v>148</v>
+      </c>
+      <c r="L112" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5.238</v>
+      </c>
+      <c r="N112" t="n">
+        <v>-0.171773</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0</v>
+      </c>
+      <c r="P112" t="n">
+        <v>5.899569583931133</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>-1.013386766140603</v>
+      </c>
+      <c r="R112" t="n">
+        <v>-0.03138530082684823</v>
       </c>
     </row>
   </sheetData>
